--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Llama/results.xlsx
@@ -620,16 +620,16 @@
         <v>486</v>
       </c>
       <c r="B3" t="n">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1296</v>
+        <v>0.1173</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -644,34 +644,34 @@
         <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
         <v>0.4937</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0886</v>
+        <v>0.0633</v>
       </c>
       <c r="N3" t="n">
         <v>0.7564</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9516</v>
+        <v>0.9671999999999999</v>
       </c>
       <c r="P3" t="n">
         <v>0.7468</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9365</v>
+        <v>0.9516</v>
       </c>
       <c r="R3" t="n">
         <v>0.7516</v>
       </c>
       <c r="S3" t="n">
-        <v>0.944</v>
+        <v>0.9593</v>
       </c>
       <c r="T3" t="n">
         <v>0.7117</v>
@@ -690,58 +690,58 @@
         <v>1850</v>
       </c>
       <c r="B4" t="n">
-        <v>1669</v>
+        <v>1697</v>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="D4" t="n">
-        <v>1413</v>
+        <v>1385</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8616</v>
+        <v>0.8314</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
       </c>
       <c r="G4" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H4" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I4" t="n">
         <v>217</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3522</v>
+        <v>1.3441</v>
       </c>
       <c r="M4" t="n">
-        <v>1.2065</v>
+        <v>1.1741</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3746</v>
+        <v>0.3782</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3951</v>
+        <v>0.4037</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5263</v>
+        <v>0.5344</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5677</v>
+        <v>0.5815</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4377</v>
+        <v>0.443</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4659</v>
+        <v>0.4765</v>
       </c>
       <c r="T4" t="n">
         <v>0.1223</v>
@@ -760,25 +760,25 @@
         <v>799</v>
       </c>
       <c r="B5" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C5" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3267</v>
+        <v>0.3242</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
       </c>
       <c r="G5" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" t="n">
         <v>9</v>
@@ -790,28 +790,28 @@
         <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3211</v>
+        <v>0.3119</v>
       </c>
       <c r="M5" t="n">
-        <v>0.211</v>
+        <v>0.2018</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9022</v>
+        <v>0.9032</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9651</v>
+        <v>0.9655</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7615</v>
+        <v>0.7706</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8058</v>
+        <v>0.8155</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8259</v>
+        <v>0.8317</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8783</v>
+        <v>0.8842</v>
       </c>
       <c r="T5" t="n">
         <v>0.7661</v>
@@ -830,64 +830,64 @@
         <v>926</v>
       </c>
       <c r="B6" t="n">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1728</v>
+        <v>0.1641</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
       </c>
       <c r="G6" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3016</v>
+        <v>0.2857</v>
       </c>
       <c r="M6" t="n">
         <v>0.09520000000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8729</v>
+        <v>0.8814</v>
       </c>
       <c r="O6" t="n">
-        <v>0.981</v>
+        <v>0.9811</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8175</v>
+        <v>0.8254</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9115</v>
+        <v>0.9123</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8443000000000001</v>
+        <v>0.8525</v>
       </c>
       <c r="S6" t="n">
-        <v>0.945</v>
+        <v>0.9455</v>
       </c>
       <c r="T6" t="n">
         <v>0.7964</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5827</v>
+        <v>0.5859</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -900,25 +900,25 @@
         <v>1238</v>
       </c>
       <c r="B7" t="n">
-        <v>1171</v>
+        <v>1201</v>
       </c>
       <c r="C7" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5767</v>
+        <v>1.5283</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" t="n">
         <v>130</v>
@@ -930,34 +930,34 @@
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2989</v>
+        <v>1.2931</v>
       </c>
       <c r="M7" t="n">
-        <v>1.2644</v>
+        <v>1.2586</v>
       </c>
       <c r="N7" t="n">
-        <v>0.375</v>
+        <v>0.378</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3805</v>
+        <v>0.3835</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4483</v>
+        <v>0.454</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4561</v>
+        <v>0.462</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4084</v>
+        <v>0.4125</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4149</v>
+        <v>0.4191</v>
       </c>
       <c r="T7" t="n">
         <v>0.402</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0414</v>
+        <v>0.0461</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,16 +970,16 @@
         <v>1163</v>
       </c>
       <c r="B8" t="n">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1015</v>
+        <v>0.0946</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1040,64 +1040,64 @@
         <v>1798</v>
       </c>
       <c r="B9" t="n">
-        <v>1596</v>
+        <v>1605</v>
       </c>
       <c r="C9" t="n">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1379</v>
+        <v>0.1279</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
       </c>
       <c r="G9" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
         <v>42</v>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3552</v>
+        <v>0.3475</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2008</v>
+        <v>0.1737</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8327</v>
+        <v>0.834</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9048</v>
+        <v>0.9174</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8069</v>
+        <v>0.8147</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8745000000000001</v>
+        <v>0.8903</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8196</v>
+        <v>0.8242</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8894</v>
+        <v>0.9036</v>
       </c>
       <c r="T9" t="n">
         <v>0.8128</v>
       </c>
       <c r="U9" t="n">
-        <v>0.4764</v>
+        <v>0.477</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Llama/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Llama/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" t="n">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1173</v>
+        <v>0.0819</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B4" t="n">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="C4" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8314</v>
+        <v>0.8324</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>799</v>
+        <v>721</v>
       </c>
       <c r="B5" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C5" t="n">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3242</v>
+        <v>0.1831</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="B6" t="n">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1641</v>
+        <v>0.0518</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="n">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5283</v>
+        <v>1.535</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="B8" t="n">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="C8" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0946</v>
+        <v>0.0598</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="n">
-        <v>1605</v>
+        <v>1615</v>
       </c>
       <c r="C9" t="n">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1279</v>
+        <v>0.1043</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
